--- a/Maven/target/test-classes/Data_SignUp.xlsx
+++ b/Maven/target/test-classes/Data_SignUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12071" windowHeight="3672"/>
+    <workbookView windowWidth="22368" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>LastName</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Quỳnh</t>
   </si>
   <si>
-    <t>Quynhtvn11+20@gmail.com</t>
+    <t>quynhtvn11+20@gmail.com</t>
   </si>
   <si>
     <t>123QWEasd</t>
@@ -52,64 +52,103 @@
     <t>Thân</t>
   </si>
   <si>
+    <t>quynhtvn11+21@gmail.com</t>
+  </si>
+  <si>
     <t>Tô Võ</t>
   </si>
   <si>
     <t>Nhật</t>
   </si>
   <si>
+    <t>quynhtvn11+22@gmail.com</t>
+  </si>
+  <si>
     <t>Tô</t>
   </si>
   <si>
     <t>Người</t>
   </si>
   <si>
+    <t>quynhtvn11+23@gmail.com</t>
+  </si>
+  <si>
     <t>Tô Thành</t>
   </si>
   <si>
+    <t>quynhtvn11+24@gmail.com</t>
+  </si>
+  <si>
     <t>Tô Võ Minh</t>
   </si>
   <si>
+    <t>quynhtvn11+25@gmail.com</t>
+  </si>
+  <si>
     <t>Lê Thành</t>
   </si>
   <si>
+    <t>quynhtvn11+26@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nguyễn </t>
   </si>
   <si>
     <t>Hoàng Thành</t>
   </si>
   <si>
+    <t>quynhtvn11+27@gmail.com</t>
+  </si>
+  <si>
     <t>Trần</t>
   </si>
   <si>
     <t>Linh</t>
   </si>
   <si>
+    <t>quynhtvn11+28@gmail.com</t>
+  </si>
+  <si>
     <t>Lê Kim</t>
   </si>
   <si>
     <t>Yên</t>
   </si>
   <si>
+    <t>quynhtvn11+29@gmail.com</t>
+  </si>
+  <si>
     <t>Trần thành</t>
   </si>
   <si>
     <t>Tâm</t>
   </si>
   <si>
+    <t>quynhtvn11+30@gmail.com</t>
+  </si>
+  <si>
     <t>Lê</t>
   </si>
   <si>
     <t>Kim Tuyền</t>
   </si>
   <si>
+    <t>quynhtvn11+31@gmail.com</t>
+  </si>
+  <si>
     <t>Phan Mạnh</t>
   </si>
   <si>
+    <t>quynhtvn11+32@gmail.com</t>
+  </si>
+  <si>
     <t>Nguyễn Tấn</t>
   </si>
   <si>
     <t>Phát</t>
+  </si>
+  <si>
+    <t>quynhtvn11+33@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -117,9 +156,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -133,6 +172,36 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -146,41 +215,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,66 +271,36 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -291,79 +331,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,91 +493,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +532,54 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,38 +602,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,173 +622,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,7 +1093,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1111,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1122,13 +1162,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1139,13 +1179,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1156,13 +1196,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -1173,13 +1213,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -1190,13 +1230,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1207,13 +1247,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1224,13 +1264,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1241,13 +1281,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1258,13 +1298,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1275,13 +1315,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -1292,13 +1332,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1309,13 +1349,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1326,8 +1366,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Quynhtvn11+20@gmail.com"/>
-    <hyperlink ref="C3:C15" r:id="rId1" display="Quynhtvn11+20@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="quynhtvn11+20@gmail.com"/>
+    <hyperlink ref="C3:C15" r:id="rId1" display="quynhtvn11+21@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="quynhtvn11+21@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId1" display="quynhtvn11+22@gmail.com"/>
+    <hyperlink ref="C5" r:id="rId1" display="quynhtvn11+23@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId1" display="quynhtvn11+24@gmail.com"/>
+    <hyperlink ref="C7" r:id="rId1" display="quynhtvn11+25@gmail.com"/>
+    <hyperlink ref="C8" r:id="rId1" display="quynhtvn11+26@gmail.com"/>
+    <hyperlink ref="C9" r:id="rId1" display="quynhtvn11+27@gmail.com"/>
+    <hyperlink ref="C10" r:id="rId1" display="quynhtvn11+28@gmail.com"/>
+    <hyperlink ref="C11" r:id="rId1" display="quynhtvn11+29@gmail.com"/>
+    <hyperlink ref="C12" r:id="rId1" display="quynhtvn11+30@gmail.com"/>
+    <hyperlink ref="C13" r:id="rId1" display="quynhtvn11+31@gmail.com"/>
+    <hyperlink ref="C14" r:id="rId1" display="quynhtvn11+32@gmail.com"/>
+    <hyperlink ref="C15" r:id="rId1" display="quynhtvn11+33@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
